--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>711410.3637095533</v>
+        <v>643103.9392868343</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554238</v>
+        <v>335414.3901624706</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.6809952</v>
+        <v>10905804.67830212</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8222662.983689154</v>
+        <v>8243252.136356125</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>39.68535441499397</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>215.4108546636942</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>110.6711786524735</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>173.2306049032574</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>192.4940119365621</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>68.38541766120755</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>122.2716936111519</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>217.2048686885435</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>145.1294943834719</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>22.31124795984768</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>9.275596830496628</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>9.461970681989245</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>138.3038958997677</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -1663,19 +1663,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>122.6482657733857</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1697,7 +1697,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933832</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.5310119231965</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.80127900144123</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903365</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1849,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>216.4445740591063</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -1903,10 +1903,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>295.9408816142891</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>86.05627151031449</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -2137,16 +2137,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>312.1573497605509</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
         <v>225.8879277888686</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.163016935793807</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>221.8199080766634</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>94.28605601595009</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162.3364906735232</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>45.8975345353324</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>307.0354783084786</v>
+        <v>76.4289351421488</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T27" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U27" t="n">
         <v>225.8879277888686</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>43.31785343913981</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>295.9408816142896</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>162.3364906735233</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>139.4184047197467</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>215.0393446428039</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>25.31590541686196</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>56.881969878158</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>361.4920100800697</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>35.1815589305632</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.19533829602393</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>94.63926978364046</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>333.3758861785204</v>
       </c>
       <c r="G38" t="n">
-        <v>301.0683539834546</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>155.4526127311944</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>185.0854493190874</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>221.002178698296</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
         <v>61.42221998250818</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>155.2114886365809</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>46.58646588932489</v>
       </c>
       <c r="U44" t="n">
-        <v>51.8138247822796</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>94.6392697836404</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4375,7 +4375,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
         <v>19.28114311021272</v>
@@ -4415,19 +4415,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W3" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>680.5221622857342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>472.7618635207803</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4527,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>731.2178664535166</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>731.2178664535166</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>731.2178664535166</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>731.2178664535166</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>484.1848034624637</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>237.1517404714108</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>978.2509294445696</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.8157010833278</v>
+        <v>194.0180478700184</v>
       </c>
       <c r="C6" t="n">
-        <v>165.8157010833278</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D6" t="n">
-        <v>165.8157010833278</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8157010833278</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>481.6032601595282</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>723.7203651970592</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>907.8577401332358</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="U6" t="n">
-        <v>852.2680861647034</v>
+        <v>576.7587556281616</v>
       </c>
       <c r="V6" t="n">
-        <v>617.1159779329607</v>
+        <v>576.7587556281616</v>
       </c>
       <c r="W6" t="n">
-        <v>373.6672012888606</v>
+        <v>576.7587556281616</v>
       </c>
       <c r="X6" t="n">
-        <v>165.8157010833278</v>
+        <v>401.7783466349723</v>
       </c>
       <c r="Y6" t="n">
-        <v>165.8157010833278</v>
+        <v>194.0180478700184</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>274.7999090013961</v>
+        <v>219.6362435135214</v>
       </c>
       <c r="C8" t="n">
-        <v>274.7999090013961</v>
+        <v>219.6362435135214</v>
       </c>
       <c r="D8" t="n">
-        <v>274.7999090013961</v>
+        <v>219.6362435135214</v>
       </c>
       <c r="E8" t="n">
-        <v>274.7999090013961</v>
+        <v>219.6362435135214</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>219.6362435135214</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>219.6362435135214</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="S8" t="n">
-        <v>743.5980286395683</v>
+        <v>698.4535282668868</v>
       </c>
       <c r="T8" t="n">
-        <v>518.2486856454962</v>
+        <v>473.5132653508267</v>
       </c>
       <c r="U8" t="n">
-        <v>274.7999090013961</v>
+        <v>219.6362435135214</v>
       </c>
       <c r="V8" t="n">
-        <v>274.7999090013961</v>
+        <v>219.6362435135214</v>
       </c>
       <c r="W8" t="n">
-        <v>274.7999090013961</v>
+        <v>219.6362435135214</v>
       </c>
       <c r="X8" t="n">
-        <v>274.7999090013961</v>
+        <v>219.6362435135214</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7999090013961</v>
+        <v>219.6362435135214</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>317.2409336147255</v>
+        <v>195.5123919972604</v>
       </c>
       <c r="C9" t="n">
-        <v>142.7879043335984</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D9" t="n">
-        <v>142.7879043335984</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E9" t="n">
-        <v>142.7879043335984</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>24.95018035683216</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>24.95018035683216</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>265.5537082516947</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>526.1633218638449</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>786.7729354759952</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>1047.185999568487</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>850.9830782217434</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>622.7627494639482</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>622.7627494639482</v>
       </c>
       <c r="W9" t="n">
-        <v>485.4562706347935</v>
+        <v>403.3638922027932</v>
       </c>
       <c r="X9" t="n">
-        <v>485.4562706347935</v>
+        <v>195.5123919972604</v>
       </c>
       <c r="Y9" t="n">
-        <v>485.4562706347935</v>
+        <v>195.5123919972604</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1363.553390680693</v>
+        <v>1461.147548391485</v>
       </c>
       <c r="C11" t="n">
-        <v>1363.553390680693</v>
+        <v>1092.185031451073</v>
       </c>
       <c r="D11" t="n">
-        <v>1363.553390680693</v>
+        <v>1092.185031451073</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G11" t="n">
         <v>534.603677789272</v>
@@ -5041,13 +5041,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5071,22 +5071,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2674.612476917366</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>2420.850691555458</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V11" t="n">
-        <v>2089.787804211887</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W11" t="n">
-        <v>1737.019148941773</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X11" t="n">
-        <v>1363.553390680693</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="Y11" t="n">
-        <v>1363.553390680693</v>
+        <v>1461.147548391485</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5159,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5220,31 +5220,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810045</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U13" t="n">
-        <v>99.59950625323012</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="V13" t="n">
-        <v>99.59950625323012</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="W13" t="n">
-        <v>99.59950625323012</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="X13" t="n">
-        <v>99.59950625323012</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2247.308246834948</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="C14" t="n">
-        <v>2107.607341885688</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D14" t="n">
-        <v>1749.341643278937</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E14" t="n">
-        <v>1363.553390680693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
@@ -5284,7 +5284,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U14" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V14" t="n">
-        <v>2247.308246834948</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W14" t="n">
-        <v>2247.308246834948</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X14" t="n">
-        <v>2247.308246834948</v>
+        <v>1240.856471184028</v>
       </c>
       <c r="Y14" t="n">
-        <v>2247.308246834948</v>
+        <v>850.7171392082162</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5375,7 +5375,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5396,10 +5396,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036444</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036444</v>
+        <v>411.0461427127113</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036444</v>
+        <v>411.0461427127113</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036444</v>
+        <v>411.0461427127113</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036444</v>
+        <v>264.156195214801</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036444</v>
+        <v>95.15639495313337</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5457,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036444</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036444</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036444</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036444</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036444</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1363.553390680693</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C17" t="n">
-        <v>1363.553390680693</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="D17" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
         <v>207.4089578252748</v>
@@ -5515,7 +5515,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
@@ -5551,16 +5551,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W17" t="n">
-        <v>1363.553390680693</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X17" t="n">
-        <v>1363.553390680693</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y17" t="n">
-        <v>1363.553390680693</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5606,31 +5606,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5700,16 +5700,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U19" t="n">
-        <v>598.0446400632119</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W19" t="n">
         <v>53.94298182036445</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1553.852279424831</v>
+        <v>840.8693068625894</v>
       </c>
       <c r="C20" t="n">
-        <v>1184.889762484419</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D20" t="n">
-        <v>1184.889762484419</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E20" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5752,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5785,19 +5785,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V20" t="n">
-        <v>1993.54646147304</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W20" t="n">
-        <v>1640.777806202926</v>
+        <v>1600.934905187791</v>
       </c>
       <c r="X20" t="n">
-        <v>1640.777806202926</v>
+        <v>1227.469146926711</v>
       </c>
       <c r="Y20" t="n">
-        <v>1640.777806202926</v>
+        <v>1227.469146926711</v>
       </c>
     </row>
     <row r="21">
@@ -5834,31 +5834,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
         <v>2289.884200196743</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I22" t="n">
         <v>53.94298182036445</v>
@@ -5937,25 +5937,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1626.94664591678</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C23" t="n">
-        <v>1626.94664591678</v>
+        <v>1116.929889604773</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.68094731003</v>
+        <v>758.6641909980228</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>758.6641909980228</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>758.6641909980228</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5992,16 +5992,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2601.910650598071</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2348.148865236162</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V23" t="n">
-        <v>2017.085977892592</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W23" t="n">
-        <v>2017.085977892592</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X23" t="n">
-        <v>2017.085977892592</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y23" t="n">
-        <v>1626.94664591678</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E25" t="n">
         <v>53.94298182036445</v>
@@ -6171,28 +6171,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>533.621179645333</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>533.621179645333</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>533.621179645333</v>
       </c>
       <c r="W25" t="n">
-        <v>438.7118141694736</v>
+        <v>533.621179645333</v>
       </c>
       <c r="X25" t="n">
-        <v>438.7118141694736</v>
+        <v>533.621179645333</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.9192350259435</v>
+        <v>533.621179645333</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1937.083492693021</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="C26" t="n">
-        <v>1937.083492693021</v>
+        <v>1293.161685715201</v>
       </c>
       <c r="D26" t="n">
-        <v>1578.81779408627</v>
+        <v>934.895987108451</v>
       </c>
       <c r="E26" t="n">
-        <v>1193.029541488026</v>
+        <v>549.1077345102067</v>
       </c>
       <c r="F26" t="n">
-        <v>782.0436366984186</v>
+        <v>549.1077345102067</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0798285966055</v>
+        <v>131.1439264083936</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6232,7 +6232,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y26" t="n">
-        <v>2323.683332757143</v>
+        <v>1662.124202655613</v>
       </c>
     </row>
     <row r="27">
@@ -6314,25 +6314,25 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
         <v>2289.884200196743</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F28" t="n">
         <v>53.94298182036445</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W28" t="n">
-        <v>684.3735766921516</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X28" t="n">
-        <v>456.3840257941342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y28" t="n">
-        <v>235.5914466506042</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.981643776797</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1933911785532</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F29" t="n">
-        <v>381.2074863889456</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259436</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259436</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259436</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259436</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259436</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6630,43 +6630,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W31" t="n">
-        <v>184.0273259635867</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259436</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1667.156396867425</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C32" t="n">
-        <v>1298.193879927013</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D32" t="n">
-        <v>939.9281813202624</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>799.1015098861748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6700,13 +6700,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6730,22 +6730,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>2057.295728843236</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W32" t="n">
-        <v>2057.295728843236</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X32" t="n">
-        <v>2057.295728843236</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="Y32" t="n">
-        <v>1667.156396867425</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6779,16 +6779,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6800,22 +6800,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2515.500626187983</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="C34" t="n">
-        <v>2346.564443260076</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="D34" t="n">
-        <v>2196.44780384774</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="E34" t="n">
-        <v>2048.534710265347</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>111.3995170508271</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y34" t="n">
-        <v>2697.149091018222</v>
+        <v>293.0479818810668</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1584.823100673951</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C35" t="n">
-        <v>1215.860583733539</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D35" t="n">
-        <v>1215.860583733539</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>830.0723311352949</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>419.0864263456874</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V35" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>1958.288858935031</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="X35" t="n">
-        <v>1584.823100673951</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y35" t="n">
-        <v>1584.823100673951</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7037,22 +7037,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7104,43 +7104,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R37" t="n">
-        <v>659.2448041094403</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S37" t="n">
-        <v>444.9563809276031</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T37" t="n">
-        <v>444.9563809276031</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U37" t="n">
-        <v>444.9563809276031</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V37" t="n">
-        <v>190.2718927217162</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y37" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1882.054803223514</v>
+        <v>902.4179758042681</v>
       </c>
       <c r="C38" t="n">
-        <v>1513.092286283103</v>
+        <v>902.4179758042681</v>
       </c>
       <c r="D38" t="n">
-        <v>1154.826587676352</v>
+        <v>544.1522771975176</v>
       </c>
       <c r="E38" t="n">
-        <v>769.038335078108</v>
+        <v>544.1522771975176</v>
       </c>
       <c r="F38" t="n">
-        <v>358.0524302885005</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533143</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287636</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y38" t="n">
-        <v>2268.654643287636</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7274,22 +7274,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>571.1061430638139</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>281.9325327183818</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1386.090004781549</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C41" t="n">
-        <v>1017.127487841138</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>658.8617892343871</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
         <v>471.9067899221776</v>
@@ -7411,19 +7411,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2112.324418312743</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W41" t="n">
-        <v>1759.555763042629</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X41" t="n">
-        <v>1386.090004781549</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y41" t="n">
-        <v>1386.090004781549</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
@@ -7499,7 +7499,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7511,22 +7511,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>571.3497027553424</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U43" t="n">
-        <v>571.3497027553424</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V43" t="n">
-        <v>571.3497027553424</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W43" t="n">
-        <v>281.9325327183818</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1519.351822121131</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C44" t="n">
-        <v>1150.38930518072</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D44" t="n">
-        <v>792.1236065739693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1236065739693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="U44" t="n">
-        <v>2589.783204798938</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V44" t="n">
-        <v>2258.720317455367</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W44" t="n">
-        <v>1905.951662185253</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X44" t="n">
-        <v>1905.951662185253</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y44" t="n">
-        <v>1905.951662185253</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="45">
@@ -7703,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
         <v>309.190302261463</v>
@@ -7748,28 +7748,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7815,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>140.1317786452013</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>234.0901525809383</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236087</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>392.8337743093849</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>130.3625277915348</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>133.6630807868109</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9962,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10907,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>251.4045252050815</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11147,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22637,10 +22637,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22676,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>166.0876307884835</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>138.1711093023382</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>162.313313380569</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>170.7252358559294</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>123.9126913782823</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22874,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>115.2702034285013</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>32.54238030022012</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>149.4414326714929</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>146.0333095543163</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>140.6346519250378</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23111,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>22.79751878223202</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>34.49011447237612</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>126.6879292296158</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,19 +23260,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>236.8008756887899</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>194.1370723978101</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.0062774114811</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>209.1226826701055</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>226.9689958712398</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>247.0828349050834</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>115.3696098403539</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23737,10 +23737,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>138.2384675615766</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>53.30008710312387</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23940,19 +23940,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>296.6775701531661</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24025,16 +24025,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>37.08361895686215</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>178.6689632461435</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,19 +24138,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,22 +24171,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>83.12091415361559</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>191.9642619441316</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>122.1622643417077</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.49548950841407</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,16 +24408,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>179.1375709227519</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>16.88729445587859</v>
+        <v>247.4938376222083</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24499,13 +24499,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929093</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24657,19 +24657,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>243.2051448974512</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>69.33201015671796</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>4.973311585527568</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24897,16 +24897,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,22 +24919,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>242.511965352515</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24970,7 +24970,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>154.6917560356652</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,28 +25077,28 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>120.1051426060693</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>110.4278323808929</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>52.2921599407253</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>314.0594097868498</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>78.46985368413392</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744438</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>73.50015956319106</v>
       </c>
       <c r="G38" t="n">
-        <v>112.7158160373403</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>78.18068774251022</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,28 +25593,28 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>69.58249272688983</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>196.8449207531744</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25684,19 +25684,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>106.7500797718389</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25839,7 +25839,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>69.82361682150338</v>
+        <v>165.3712490426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25848,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>169.8618544683329</v>
       </c>
       <c r="U44" t="n">
-        <v>199.4103427260097</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>123.9919488199112</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26079,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465428.5179229465</v>
+        <v>465428.5179229463</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465428.5179229464</v>
+        <v>468509.5306848606</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465428.5179229464</v>
+        <v>484493.4921751529</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476632</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.1451476632</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516326</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>147339.1279972481</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26340,13 +26340,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
+        <v>245779.7185133938</v>
+      </c>
+      <c r="M2" t="n">
         <v>245779.7185133939</v>
-      </c>
-      <c r="M2" t="n">
-        <v>245779.7185133938</v>
       </c>
       <c r="N2" t="n">
         <v>245779.7185133939</v>
@@ -26355,7 +26355,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22364.98695753564</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429961</v>
+        <v>407720.4376835742</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,16 +26392,16 @@
         <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>913.2558024571694</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4727.563118847404</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>102434.1176906351</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="C4" t="n">
-        <v>25282.26821261927</v>
+        <v>25293.26066533936</v>
       </c>
       <c r="D4" t="n">
-        <v>25282.26821261927</v>
+        <v>25338.71079138017</v>
       </c>
       <c r="E4" t="n">
         <v>27086.83710496504</v>
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26496,22 +26496,22 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="N5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="N5" t="n">
-        <v>49231.47806340948</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13096.39685629615</v>
+        <v>-25314.40747633658</v>
       </c>
       <c r="C6" t="n">
-        <v>67673.03467525166</v>
+        <v>51699.94129532464</v>
       </c>
       <c r="D6" t="n">
-        <v>67673.03467525158</v>
+        <v>37641.98612414171</v>
       </c>
       <c r="E6" t="n">
-        <v>-263384.7706979767</v>
+        <v>-244327.448084374</v>
       </c>
       <c r="F6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992001</v>
       </c>
       <c r="G6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="H6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="I6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="J6" t="n">
-        <v>106401.4607459131</v>
+        <v>100333.047000094</v>
       </c>
       <c r="K6" t="n">
-        <v>169461.4033450195</v>
+        <v>162479.7337967431</v>
       </c>
       <c r="L6" t="n">
-        <v>169461.4033450194</v>
+        <v>158665.4264803527</v>
       </c>
       <c r="M6" t="n">
-        <v>61488.04267096119</v>
+        <v>60958.87190856506</v>
       </c>
       <c r="N6" t="n">
-        <v>169461.4033450193</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="O6" t="n">
-        <v>169461.4033450194</v>
+        <v>163392.9895992002</v>
       </c>
       <c r="P6" t="n">
-        <v>169461.4033450195</v>
+        <v>163392.9895992002</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26773,7 +26773,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
         <v>377.7436642170866</v>
@@ -26792,16 +26792,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26816,22 +26816,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="N4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="N4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.3395197935473</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>354.730281530297</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768965</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483453</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052437</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>411.0452388028888</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33891,43 +33891,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N39" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,25 +34067,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>104.8036895137028</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.930118828988702</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>5.840541654727605</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35740,13 +35740,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245897</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36214,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36451,7 +36451,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36682,19 +36682,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
         <v>308.9376163116798</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,10 +37396,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37715,10 +37715,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
